--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H2">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I2">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J2">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N2">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O2">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P2">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q2">
-        <v>114.7839764959433</v>
+        <v>119.6553651666667</v>
       </c>
       <c r="R2">
-        <v>114.7839764959433</v>
+        <v>1076.8982865</v>
       </c>
       <c r="S2">
-        <v>0.009628857901278425</v>
+        <v>0.009675202792483836</v>
       </c>
       <c r="T2">
-        <v>0.009628857901278425</v>
+        <v>0.009675202792483836</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H3">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I3">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J3">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N3">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P3">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q3">
-        <v>562.0053893869458</v>
+        <v>569.9141129811554</v>
       </c>
       <c r="R3">
-        <v>562.0053893869458</v>
+        <v>5129.227016830399</v>
       </c>
       <c r="S3">
-        <v>0.04714482107483707</v>
+        <v>0.04608263582423391</v>
       </c>
       <c r="T3">
-        <v>0.04714482107483707</v>
+        <v>0.04608263582423391</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H4">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I4">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J4">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N4">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O4">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P4">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q4">
-        <v>1706.591127312129</v>
+        <v>1721.489433600799</v>
       </c>
       <c r="R4">
-        <v>1706.591127312129</v>
+        <v>15493.4049024072</v>
       </c>
       <c r="S4">
-        <v>0.1431604302456956</v>
+        <v>0.1391977647805951</v>
       </c>
       <c r="T4">
-        <v>0.1431604302456956</v>
+        <v>0.1391977647805951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H5">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I5">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J5">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N5">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O5">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P5">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q5">
-        <v>1202.29882790229</v>
+        <v>1227.650306143733</v>
       </c>
       <c r="R5">
-        <v>1202.29882790229</v>
+        <v>11048.8527552936</v>
       </c>
       <c r="S5">
-        <v>0.1008569743108168</v>
+        <v>0.09926646961171423</v>
       </c>
       <c r="T5">
-        <v>0.1008569743108168</v>
+        <v>0.0992664696117142</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.2820369973405</v>
+        <v>57.37146666666666</v>
       </c>
       <c r="H6">
-        <v>57.2820369973405</v>
+        <v>172.1144</v>
       </c>
       <c r="I6">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928175</v>
       </c>
       <c r="J6">
-        <v>0.370182935598782</v>
+        <v>0.3670776276928174</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N6">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O6">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P6">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q6">
-        <v>827.2084600515166</v>
+        <v>901.020700763111</v>
       </c>
       <c r="R6">
-        <v>827.2084600515166</v>
+        <v>8109.186306867999</v>
       </c>
       <c r="S6">
-        <v>0.06939185206615407</v>
+        <v>0.07285555468379042</v>
       </c>
       <c r="T6">
-        <v>0.06939185206615407</v>
+        <v>0.07285555468379042</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.0955415933562</v>
+        <v>3.621603</v>
       </c>
       <c r="H7">
-        <v>3.0955415933562</v>
+        <v>10.864809</v>
       </c>
       <c r="I7">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J7">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N7">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O7">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P7">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q7">
-        <v>6.202966795864989</v>
+        <v>7.553305756875</v>
       </c>
       <c r="R7">
-        <v>6.202966795864989</v>
+        <v>67.979751811875</v>
       </c>
       <c r="S7">
-        <v>0.0005203468956822836</v>
+        <v>0.0006107520949821952</v>
       </c>
       <c r="T7">
-        <v>0.0005203468956822836</v>
+        <v>0.0006107520949821952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.0955415933562</v>
+        <v>3.621603</v>
       </c>
       <c r="H8">
-        <v>3.0955415933562</v>
+        <v>10.864809</v>
       </c>
       <c r="I8">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J8">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N8">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O8">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P8">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q8">
-        <v>30.37097054733598</v>
+        <v>35.976118116466</v>
       </c>
       <c r="R8">
-        <v>30.37097054733598</v>
+        <v>323.785063048194</v>
       </c>
       <c r="S8">
-        <v>0.002547722849927103</v>
+        <v>0.002908989814024039</v>
       </c>
       <c r="T8">
-        <v>0.002547722849927103</v>
+        <v>0.00290898981402404</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.0955415933562</v>
+        <v>3.621603</v>
       </c>
       <c r="H9">
-        <v>3.0955415933562</v>
+        <v>10.864809</v>
       </c>
       <c r="I9">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J9">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N9">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O9">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P9">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q9">
-        <v>92.22478973107424</v>
+        <v>108.669895671663</v>
       </c>
       <c r="R9">
-        <v>92.22478973107424</v>
+        <v>978.029061044967</v>
       </c>
       <c r="S9">
-        <v>0.007736440419688544</v>
+        <v>0.008786929667524</v>
       </c>
       <c r="T9">
-        <v>0.007736440419688544</v>
+        <v>0.008786929667523998</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.0955415933562</v>
+        <v>3.621603</v>
       </c>
       <c r="H10">
-        <v>3.0955415933562</v>
+        <v>10.864809</v>
       </c>
       <c r="I10">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J10">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N10">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O10">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P10">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q10">
-        <v>64.972655032986</v>
+        <v>77.49604969161901</v>
       </c>
       <c r="R10">
-        <v>64.972655032986</v>
+        <v>697.464447224571</v>
       </c>
       <c r="S10">
-        <v>0.005450346658825807</v>
+        <v>0.006266246359604888</v>
       </c>
       <c r="T10">
-        <v>0.005450346658825807</v>
+        <v>0.006266246359604886</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.0955415933562</v>
+        <v>3.621603</v>
       </c>
       <c r="H11">
-        <v>3.0955415933562</v>
+        <v>10.864809</v>
       </c>
       <c r="I11">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="J11">
-        <v>0.02000481711832161</v>
+        <v>0.02317196186406003</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N11">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O11">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P11">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q11">
-        <v>44.70263853543628</v>
+        <v>56.877389799095</v>
       </c>
       <c r="R11">
-        <v>44.70263853543628</v>
+        <v>511.896508191855</v>
       </c>
       <c r="S11">
-        <v>0.003749960294197871</v>
+        <v>0.004599043927924907</v>
       </c>
       <c r="T11">
-        <v>0.003749960294197871</v>
+        <v>0.004599043927924906</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>51.8704407904301</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H12">
-        <v>51.8704407904301</v>
+        <v>156.207692</v>
       </c>
       <c r="I12">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J12">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N12">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O12">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P12">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q12">
-        <v>103.94000927026</v>
+        <v>108.5968892091667</v>
       </c>
       <c r="R12">
-        <v>103.94000927026</v>
+        <v>977.3720028825001</v>
       </c>
       <c r="S12">
-        <v>0.008719192434984745</v>
+        <v>0.00878102644430597</v>
       </c>
       <c r="T12">
-        <v>0.008719192434984745</v>
+        <v>0.008781026444305968</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>51.8704407904301</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H13">
-        <v>51.8704407904301</v>
+        <v>156.207692</v>
       </c>
       <c r="I13">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J13">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N13">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O13">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P13">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q13">
-        <v>508.9111491522489</v>
+        <v>517.2429978375635</v>
       </c>
       <c r="R13">
-        <v>508.9111491522489</v>
+        <v>4655.186980538072</v>
       </c>
       <c r="S13">
-        <v>0.04269091635570316</v>
+        <v>0.04182370669380423</v>
       </c>
       <c r="T13">
-        <v>0.04269091635570316</v>
+        <v>0.04182370669380423</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>51.8704407904301</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H14">
-        <v>51.8704407904301</v>
+        <v>156.207692</v>
       </c>
       <c r="I14">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J14">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N14">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O14">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P14">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q14">
-        <v>1545.364631967035</v>
+        <v>1562.390428837844</v>
       </c>
       <c r="R14">
-        <v>1545.364631967035</v>
+        <v>14061.51385954059</v>
       </c>
       <c r="S14">
-        <v>0.1296356590973994</v>
+        <v>0.126333192155541</v>
       </c>
       <c r="T14">
-        <v>0.1296356590973994</v>
+        <v>0.126333192155541</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>51.8704407904301</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H15">
-        <v>51.8704407904301</v>
+        <v>156.207692</v>
       </c>
       <c r="I15">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J15">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N15">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O15">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P15">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q15">
-        <v>1088.714253789625</v>
+        <v>1114.191612705305</v>
       </c>
       <c r="R15">
-        <v>1088.714253789625</v>
+        <v>10027.72451434775</v>
       </c>
       <c r="S15">
-        <v>0.09132873041044333</v>
+        <v>0.09009232296097258</v>
       </c>
       <c r="T15">
-        <v>0.09132873041044333</v>
+        <v>0.09009232296097255</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>51.8704407904301</v>
+        <v>52.06923066666667</v>
       </c>
       <c r="H16">
-        <v>51.8704407904301</v>
+        <v>156.207692</v>
       </c>
       <c r="I16">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564099</v>
       </c>
       <c r="J16">
-        <v>0.3352107056439999</v>
+        <v>0.3331525369564098</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N16">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O16">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P16">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q16">
-        <v>749.0597349119616</v>
+        <v>817.7489164789711</v>
       </c>
       <c r="R16">
-        <v>749.0597349119616</v>
+        <v>7359.74024831074</v>
       </c>
       <c r="S16">
-        <v>0.06283620734546927</v>
+        <v>0.0661222887017861</v>
       </c>
       <c r="T16">
-        <v>0.06283620734546927</v>
+        <v>0.06612228870178609</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>41.1812010757006</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H17">
-        <v>41.1812010757006</v>
+        <v>125.561665</v>
       </c>
       <c r="I17">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J17">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N17">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O17">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P17">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q17">
-        <v>82.52049445391398</v>
+        <v>87.29151585520833</v>
       </c>
       <c r="R17">
-        <v>82.52049445391398</v>
+        <v>785.623642696875</v>
       </c>
       <c r="S17">
-        <v>0.006922378360607276</v>
+        <v>0.007058297108416961</v>
       </c>
       <c r="T17">
-        <v>0.006922378360607276</v>
+        <v>0.007058297108416961</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>41.1812010757006</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H18">
-        <v>41.1812010757006</v>
+        <v>125.561665</v>
       </c>
       <c r="I18">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J18">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N18">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O18">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P18">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q18">
-        <v>404.0369050954973</v>
+        <v>415.7662864519878</v>
       </c>
       <c r="R18">
-        <v>404.0369050954973</v>
+        <v>3741.89657806789</v>
       </c>
       <c r="S18">
-        <v>0.03389335397501544</v>
+        <v>0.03361841009049481</v>
       </c>
       <c r="T18">
-        <v>0.03389335397501544</v>
+        <v>0.03361841009049481</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>41.1812010757006</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H19">
-        <v>41.1812010757006</v>
+        <v>125.561665</v>
       </c>
       <c r="I19">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J19">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N19">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O19">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P19">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q19">
-        <v>1226.902464573847</v>
+        <v>1255.868652261655</v>
       </c>
       <c r="R19">
-        <v>1226.902464573847</v>
+        <v>11302.81787035489</v>
       </c>
       <c r="S19">
-        <v>0.1029208941069173</v>
+        <v>0.1015481744126574</v>
       </c>
       <c r="T19">
-        <v>0.1029208941069173</v>
+        <v>0.1015481744126574</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>41.1812010757006</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H20">
-        <v>41.1812010757006</v>
+        <v>125.561665</v>
       </c>
       <c r="I20">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J20">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N20">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O20">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P20">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q20">
-        <v>864.3566531550213</v>
+        <v>895.6009286681817</v>
       </c>
       <c r="R20">
-        <v>864.3566531550213</v>
+        <v>8060.408358013635</v>
       </c>
       <c r="S20">
-        <v>0.07250809427697816</v>
+        <v>0.07241731780210572</v>
       </c>
       <c r="T20">
-        <v>0.07250809427697816</v>
+        <v>0.0724173178021057</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>41.1812010757006</v>
+        <v>41.85388833333334</v>
       </c>
       <c r="H21">
-        <v>41.1812010757006</v>
+        <v>125.561665</v>
       </c>
       <c r="I21">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="J21">
-        <v>0.2661319098410265</v>
+        <v>0.2677921087216426</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N21">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O21">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P21">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q21">
-        <v>594.6966922018458</v>
+        <v>657.3166416481306</v>
       </c>
       <c r="R21">
-        <v>594.6966922018458</v>
+        <v>5915.849774833175</v>
       </c>
       <c r="S21">
-        <v>0.04988718912150829</v>
+        <v>0.0531499093079677</v>
       </c>
       <c r="T21">
-        <v>0.04988718912150829</v>
+        <v>0.05314990930796769</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.31058921237058</v>
+        <v>1.376274666666667</v>
       </c>
       <c r="H22">
-        <v>1.31058921237058</v>
+        <v>4.128824</v>
       </c>
       <c r="I22">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070032</v>
       </c>
       <c r="J22">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070031</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.00383894345923</v>
+        <v>2.085625</v>
       </c>
       <c r="N22">
-        <v>2.00383894345923</v>
+        <v>6.256875</v>
       </c>
       <c r="O22">
-        <v>0.02601107986164586</v>
+        <v>0.02635737528678909</v>
       </c>
       <c r="P22">
-        <v>0.02601107986164586</v>
+        <v>0.0263573752867891</v>
       </c>
       <c r="Q22">
-        <v>2.626209702625727</v>
+        <v>2.870392851666666</v>
       </c>
       <c r="R22">
-        <v>2.626209702625727</v>
+        <v>25.833535665</v>
       </c>
       <c r="S22">
-        <v>0.0002203042690931299</v>
+        <v>0.000232096846600135</v>
       </c>
       <c r="T22">
-        <v>0.0002203042690931299</v>
+        <v>0.000232096846600135</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.31058921237058</v>
+        <v>1.376274666666667</v>
       </c>
       <c r="H23">
-        <v>1.31058921237058</v>
+        <v>4.128824</v>
       </c>
       <c r="I23">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070032</v>
       </c>
       <c r="J23">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070031</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>9.811197695588911</v>
+        <v>9.933755333333332</v>
       </c>
       <c r="N23">
-        <v>9.811197695588911</v>
+        <v>29.801266</v>
       </c>
       <c r="O23">
-        <v>0.1273554681783992</v>
+        <v>0.1255392111850449</v>
       </c>
       <c r="P23">
-        <v>0.1273554681783992</v>
+        <v>0.125539211185045</v>
       </c>
       <c r="Q23">
-        <v>12.85844986027392</v>
+        <v>13.67157581013155</v>
       </c>
       <c r="R23">
-        <v>12.85844986027392</v>
+        <v>123.044182291184</v>
       </c>
       <c r="S23">
-        <v>0.001078653922916382</v>
+        <v>0.001105468762487954</v>
       </c>
       <c r="T23">
-        <v>0.001078653922916382</v>
+        <v>0.001105468762487954</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.31058921237058</v>
+        <v>1.376274666666667</v>
       </c>
       <c r="H24">
-        <v>1.31058921237058</v>
+        <v>4.128824</v>
       </c>
       <c r="I24">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070032</v>
       </c>
       <c r="J24">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070031</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>29.7927800191771</v>
+        <v>30.00602099999999</v>
       </c>
       <c r="N24">
-        <v>29.7927800191771</v>
+        <v>90.01806299999998</v>
       </c>
       <c r="O24">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="P24">
-        <v>0.386728875046953</v>
+        <v>0.37920525327433</v>
       </c>
       <c r="Q24">
-        <v>39.04609609966327</v>
+        <v>41.29652654976799</v>
       </c>
       <c r="R24">
-        <v>39.04609609966327</v>
+        <v>371.6687389479119</v>
       </c>
       <c r="S24">
-        <v>0.003275451177252139</v>
+        <v>0.003339192258012553</v>
       </c>
       <c r="T24">
-        <v>0.003275451177252139</v>
+        <v>0.003339192258012552</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.31058921237058</v>
+        <v>1.376274666666667</v>
       </c>
       <c r="H25">
-        <v>1.31058921237058</v>
+        <v>4.128824</v>
       </c>
       <c r="I25">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070032</v>
       </c>
       <c r="J25">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070031</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>20.9891074222467</v>
+        <v>21.398273</v>
       </c>
       <c r="N25">
-        <v>20.9891074222467</v>
+        <v>64.194819</v>
       </c>
       <c r="O25">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="P25">
-        <v>0.2724517113347691</v>
+        <v>0.2704236437279791</v>
       </c>
       <c r="Q25">
-        <v>27.5080977648838</v>
+        <v>29.44990104031733</v>
       </c>
       <c r="R25">
-        <v>27.5080977648838</v>
+        <v>265.049109362856</v>
       </c>
       <c r="S25">
-        <v>0.002307565677705039</v>
+        <v>0.00238128699358169</v>
       </c>
       <c r="T25">
-        <v>0.002307565677705039</v>
+        <v>0.002381286993581689</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.31058921237058</v>
+        <v>1.376274666666667</v>
       </c>
       <c r="H26">
-        <v>1.31058921237058</v>
+        <v>4.128824</v>
       </c>
       <c r="I26">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070032</v>
       </c>
       <c r="J26">
-        <v>0.008469631797869928</v>
+        <v>0.008805764765070031</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.4409749270949</v>
+        <v>15.70503166666666</v>
       </c>
       <c r="N26">
-        <v>14.4409749270949</v>
+        <v>47.115095</v>
       </c>
       <c r="O26">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="P26">
-        <v>0.1874528655782328</v>
+        <v>0.1984745165258568</v>
       </c>
       <c r="Q26">
-        <v>18.9261859555646</v>
+        <v>21.61443722203111</v>
       </c>
       <c r="R26">
-        <v>18.9261859555646</v>
+        <v>194.52993499828</v>
       </c>
       <c r="S26">
-        <v>0.001587656750903238</v>
+        <v>0.0017477199043877</v>
       </c>
       <c r="T26">
-        <v>0.001587656750903238</v>
+        <v>0.0017477199043877</v>
       </c>
     </row>
   </sheetData>
